--- a/Assets/Resource/ExcelData/action_group.xlsx
+++ b/Assets/Resource/ExcelData/action_group.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\TextRPG\Assets\Resource\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE31C527-5CC5-4EFD-906D-8050DC3257F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2FF73AF-2C10-4C49-A372-D1C7D4EF9C02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4260" yWindow="5772" windowWidth="41328" windowHeight="19704" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
+    <workbookView xWindow="5184" yWindow="4236" windowWidth="35832" windowHeight="19692" xr2:uid="{31F9D538-CB36-4F6C-AC31-CCD9A4836B67}"/>
   </bookViews>
   <sheets>
-    <sheet name="ch1" sheetId="1" r:id="rId1"/>
+    <sheet name="action_group" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
   <si>
     <t>int</t>
   </si>
@@ -125,27 +125,12 @@
     <t>결과 처리 방식</t>
   </si>
   <si>
-    <t>result_text_success</t>
-  </si>
-  <si>
-    <t>결과에 따른 출력 텍스트_성공</t>
-  </si>
-  <si>
-    <t>result_text_fail</t>
-  </si>
-  <si>
-    <t>결과에 따른 출력 텍스트_실패</t>
-  </si>
-  <si>
     <t>result_text_additional</t>
   </si>
   <si>
     <t>결과에 따른 출력 텍스트_추가 선택지</t>
   </si>
   <si>
-    <t>string[]</t>
-  </si>
-  <si>
     <t>is_unique_action</t>
   </si>
   <si>
@@ -220,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>enum:battle_selecton_type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>빈틈을 노린다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -257,37 +238,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회피에 성공했습니다.</t>
-  </si>
-  <si>
-    <t>회피에 성공했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵빛 골렘의 공격에 맞았습니다. {0}의 대미지를 받았습니다.</t>
-  </si>
-  <si>
-    <t>묵빛 골렘의 공격에 맞았습니다. {0}의 대미지를 받았습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>묵빛 골렘이 제법 날렵하게 움직였지만, 당신의 공격을 피하지는 못했습니다. {0}의 대미지를 입혔습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>어이없게도 재빠른 몸놀림에 당신의 공격이 적중하지 못했습니다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>묵빛 골렘이 정신을 집중한 동안 두 배의 피해를 입혔습니다. 묵빛 골렘이 스스로를 강화하는데 성공했습니다. 묵빛 골렘의 공격력이 15 상승합니다. (3턴)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>text_always</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>텍스트 항상 출력 여부</t>
+  </si>
+  <si>
+    <t>텍스트 항상 출력 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵빛 골렘의 팔이 내려 꽂힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵빛 골렘의 팔이 묵직하게 내려 꽂힙니다.</t>
+  </si>
+  <si>
+    <t>묵빛 골렘의 팔이 묵직하게 내려 꽂힙니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵빛 골렘이 예리하게 빈틈을 파고듭니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>묵빛 골렘이 예상치 못한 몸놀림으로 공격을 피합니다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>묵빛 골렘이 미지의 힘으로 자신을 강화합니다. 묵빛 골렘의 공격력이 15 상승합니다. (3턴)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>묵빛 골렘이 미지의 힘으로 당신을 억압합니다. 당신의 방어력이 10 감소합니다. (2턴)</t>
+  </si>
+  <si>
+    <t>result_text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과에 따른 출력 텍스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>text_always_additional</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -712,11 +715,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D9A91B-D08A-4539-AB73-212820098BCC}">
-  <dimension ref="A1:U23"/>
+  <dimension ref="A1:V23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.4"/>
@@ -726,12 +729,14 @@
     <col min="8" max="8" width="12" style="3" customWidth="1"/>
     <col min="9" max="9" width="40" style="3" customWidth="1"/>
     <col min="10" max="12" width="12" style="3" customWidth="1"/>
-    <col min="13" max="15" width="40" style="3" customWidth="1"/>
-    <col min="16" max="16" width="12" style="3" customWidth="1"/>
-    <col min="17" max="16384" width="8.796875" style="3"/>
+    <col min="13" max="13" width="40" style="3" customWidth="1"/>
+    <col min="14" max="14" width="12" style="3" customWidth="1"/>
+    <col min="15" max="15" width="40" style="3" customWidth="1"/>
+    <col min="16" max="17" width="12" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -769,19 +774,22 @@
         <v>27</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="7" t="s">
+      <c r="P1" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:17" s="6" customFormat="1" ht="26.4" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -819,19 +827,22 @@
         <v>28</v>
       </c>
       <c r="M2" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="O2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="P2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:17" s="5" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -839,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>11</v>
@@ -860,28 +871,31 @@
         <v>1</v>
       </c>
       <c r="J3" s="4" t="s">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="K3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="M3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N3" s="5" t="s">
-        <v>1</v>
+      <c r="N3" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="O3" s="5" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="P3" s="5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="27" thickTop="1" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="13.8" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>1000101</v>
       </c>
@@ -889,7 +903,7 @@
         <v>100010101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -897,7 +911,7 @@
         <v>1</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -905,17 +919,17 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+      <c r="N4" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="O4" s="6"/>
-      <c r="P4" s="3" t="b">
+      <c r="Q4" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000101</v>
       </c>
@@ -923,7 +937,7 @@
         <v>100010102</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
@@ -931,27 +945,27 @@
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
+      </c>
+      <c r="N5" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="O5" s="6"/>
-      <c r="P5" s="3" t="b">
+      <c r="Q5" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>1000101</v>
       </c>
@@ -959,49 +973,52 @@
         <v>100010103</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="N6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="M6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="O6" s="6" t="s">
-        <v>66</v>
-      </c>
       <c r="P6" s="3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="Q6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1000101</v>
       </c>
@@ -1009,7 +1026,7 @@
         <v>100010104</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -1017,7 +1034,7 @@
         <v>1</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1025,17 +1042,17 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="N7" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="O7" s="6"/>
-      <c r="P7" s="3" t="b">
+      <c r="Q7" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1000101</v>
       </c>
@@ -1043,7 +1060,7 @@
         <v>100010105</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1051,35 +1068,40 @@
         <v>1</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6" t="s">
-        <v>74</v>
+        <v>35</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N8" s="1" t="b">
+        <v>1</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="P8" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1000101</v>
       </c>
@@ -1087,7 +1109,7 @@
         <v>100010106</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
@@ -1095,23 +1117,26 @@
         <v>1</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="N9" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="P9" s="3" t="b">
+      <c r="M9" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="N9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>1000102</v>
       </c>
@@ -1119,7 +1144,7 @@
         <v>100010201</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -1127,10 +1152,10 @@
         <v>1</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1139,14 +1164,14 @@
       <c r="M10" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="P10" s="3" t="b">
+      <c r="N10" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1159,8 +1184,9 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1173,8 +1199,9 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1187,8 +1214,9 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1201,8 +1229,9 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1215,8 +1244,9 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1229,8 +1259,9 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -1243,8 +1274,9 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1257,8 +1289,9 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1271,8 +1304,9 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1285,8 +1319,9 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1308,8 +1343,9 @@
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V21" s="1"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1331,8 +1367,9 @@
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V22" s="1"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1354,6 +1391,7 @@
       <c r="S23" s="1"/>
       <c r="T23" s="1"/>
       <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
